--- a/modelo BDD/plantilla importacion Productos.xlsx
+++ b/modelo BDD/plantilla importacion Productos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itsupport2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\secret\modelo BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsType" sheetId="1" r:id="rId1"/>
@@ -624,9 +624,6 @@
     <t>ROMANTIC</t>
   </si>
   <si>
-    <t>PINK O'HARA</t>
-  </si>
-  <si>
     <t>SUNSET</t>
   </si>
   <si>
@@ -1132,6 +1129,9 @@
   </si>
   <si>
     <t>INSERT INTO SPECIES(NAME_SPECIE, DATE_SPECIE) VALUES</t>
+  </si>
+  <si>
+    <t>PINK O HARA</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1581,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1764,12 +1764,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,18 +1881,18 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B35"/>
     </sheetView>
   </sheetViews>
@@ -1970,15 +1970,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("('",A2,"',GETDATE()),")</f>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B35" si="0">CONCATENATE("('",A3,"',GETDATE()),")</f>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -2291,15 +2291,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
   </cols>
@@ -2308,8 +2308,8 @@
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
-        <v>326</v>
+      <c r="F1" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
         <f>CONCATENATE(C2,D2)</f>
         <v>Assorted</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="8" t="str">
         <f>CONCATENATE("('",E2,"',getdate()),")</f>
         <v>('Assorted',getdate()),</v>
       </c>
@@ -2357,7 +2357,7 @@
         <f t="shared" ref="E3:E66" si="3">CONCATENATE(C3,D3)</f>
         <v>Red</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="8" t="str">
         <f t="shared" ref="F3:F66" si="4">CONCATENATE("('",E3,"',getdate()),")</f>
         <v>('Red',getdate()),</v>
       </c>
@@ -2382,7 +2382,7 @@
         <f t="shared" si="3"/>
         <v>Picasso</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Picasso',getdate()),</v>
       </c>
@@ -2407,7 +2407,7 @@
         <f t="shared" si="3"/>
         <v>Black</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Black',getdate()),</v>
       </c>
@@ -2432,7 +2432,7 @@
         <f t="shared" si="3"/>
         <v>White</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White',getdate()),</v>
       </c>
@@ -2457,7 +2457,7 @@
         <f t="shared" si="3"/>
         <v>Lavender - white</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Lavender - white',getdate()),</v>
       </c>
@@ -2482,7 +2482,7 @@
         <f t="shared" si="3"/>
         <v>Pink - white</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Pink - white',getdate()),</v>
       </c>
@@ -2507,7 +2507,7 @@
         <f t="shared" si="3"/>
         <v>Purple - pink</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Purple - pink',getdate()),</v>
       </c>
@@ -2532,7 +2532,7 @@
         <f t="shared" si="3"/>
         <v>Yellow - purple</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Yellow - purple',getdate()),</v>
       </c>
@@ -2557,7 +2557,7 @@
         <f t="shared" si="3"/>
         <v>Black - pink</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Black - pink',getdate()),</v>
       </c>
@@ -2582,7 +2582,7 @@
         <f t="shared" si="3"/>
         <v>Black - white</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Black - white',getdate()),</v>
       </c>
@@ -2607,7 +2607,7 @@
         <f t="shared" si="3"/>
         <v>Black - yellow</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Black - yellow',getdate()),</v>
       </c>
@@ -2632,12 +2632,12 @@
         <f t="shared" si="3"/>
         <v>Red - white</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Red - white',getdate()),</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>59</v>
       </c>
@@ -2657,12 +2657,12 @@
         <f t="shared" si="3"/>
         <v>White - blue</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - blue',getdate()),</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>60</v>
       </c>
@@ -2682,12 +2682,12 @@
         <f t="shared" si="3"/>
         <v>White - green</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - green',getdate()),</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
@@ -2707,12 +2707,12 @@
         <f t="shared" si="3"/>
         <v>White - light blue</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - light blue',getdate()),</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
@@ -2732,7 +2732,7 @@
         <f t="shared" si="3"/>
         <v>White - orange</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - orange',getdate()),</v>
       </c>
@@ -2757,12 +2757,12 @@
         <f t="shared" si="3"/>
         <v>White - hot pink</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - hot pink',getdate()),</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>64</v>
       </c>
@@ -2782,12 +2782,12 @@
         <f t="shared" si="3"/>
         <v>White - pink</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - pink',getdate()),</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -2807,7 +2807,7 @@
         <f t="shared" si="3"/>
         <v>White - purple</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - purple',getdate()),</v>
       </c>
@@ -2832,12 +2832,12 @@
         <f t="shared" si="3"/>
         <v>White - red</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - red',getdate()),</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
@@ -2857,7 +2857,7 @@
         <f t="shared" si="3"/>
         <v>White - yellow</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - yellow',getdate()),</v>
       </c>
@@ -2882,7 +2882,7 @@
         <f t="shared" si="3"/>
         <v>Hot pink</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Hot pink',getdate()),</v>
       </c>
@@ -2907,7 +2907,7 @@
         <f t="shared" si="3"/>
         <v>Peach</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Peach',getdate()),</v>
       </c>
@@ -2932,7 +2932,7 @@
         <f t="shared" si="3"/>
         <v>Purple</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Purple',getdate()),</v>
       </c>
@@ -2957,7 +2957,7 @@
         <f t="shared" si="3"/>
         <v>Lavender</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Lavender',getdate()),</v>
       </c>
@@ -2982,7 +2982,7 @@
         <f t="shared" si="3"/>
         <v>Orange</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Orange',getdate()),</v>
       </c>
@@ -3007,7 +3007,7 @@
         <f t="shared" si="3"/>
         <v>Pink</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Pink',getdate()),</v>
       </c>
@@ -3032,7 +3032,7 @@
         <f t="shared" si="3"/>
         <v>Yellow</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Yellow',getdate()),</v>
       </c>
@@ -3057,7 +3057,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Burgundy </v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Burgundy ',getdate()),</v>
       </c>
@@ -3082,7 +3082,7 @@
         <f t="shared" si="3"/>
         <v>Novelties</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Novelties',getdate()),</v>
       </c>
@@ -3107,7 +3107,7 @@
         <f t="shared" si="3"/>
         <v>Green</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Green',getdate()),</v>
       </c>
@@ -3132,7 +3132,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">Green </v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Green ',getdate()),</v>
       </c>
@@ -3157,7 +3157,7 @@
         <f t="shared" si="3"/>
         <v>Holly</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Holly',getdate()),</v>
       </c>
@@ -3182,7 +3182,7 @@
         <f t="shared" si="3"/>
         <v>Pine cones</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Pine cones',getdate()),</v>
       </c>
@@ -3207,7 +3207,7 @@
         <f t="shared" si="3"/>
         <v>Antique green</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Antique green',getdate()),</v>
       </c>
@@ -3232,7 +3232,7 @@
         <f t="shared" si="3"/>
         <v>Blue</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Blue',getdate()),</v>
       </c>
@@ -3257,7 +3257,7 @@
         <f t="shared" si="3"/>
         <v>Hulk</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Hulk',getdate()),</v>
       </c>
@@ -3282,7 +3282,7 @@
         <f t="shared" si="3"/>
         <v>Kiwi</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Kiwi',getdate()),</v>
       </c>
@@ -3307,7 +3307,7 @@
         <f t="shared" si="3"/>
         <v>Lime green</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Lime green',getdate()),</v>
       </c>
@@ -3332,7 +3332,7 @@
         <f t="shared" si="3"/>
         <v>White - assorted</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - assorted',getdate()),</v>
       </c>
@@ -3357,7 +3357,7 @@
         <f t="shared" si="3"/>
         <v>White - bicolor</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - bicolor',getdate()),</v>
       </c>
@@ -3382,7 +3382,7 @@
         <f t="shared" si="3"/>
         <v>White - peach</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('White - peach',getdate()),</v>
       </c>
@@ -3407,7 +3407,7 @@
         <f t="shared" si="3"/>
         <v>Hot pink - white</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Hot pink - white',getdate()),</v>
       </c>
@@ -3432,7 +3432,7 @@
         <f t="shared" si="3"/>
         <v>Light pink</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Light pink',getdate()),</v>
       </c>
@@ -3457,7 +3457,7 @@
         <f t="shared" si="3"/>
         <v>Pink-green-white</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Pink-green-white',getdate()),</v>
       </c>
@@ -3482,7 +3482,7 @@
         <f t="shared" si="3"/>
         <v>Yellow-orange-green</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Yellow-orange-green',getdate()),</v>
       </c>
@@ -3507,7 +3507,7 @@
         <f t="shared" si="3"/>
         <v>Bronze</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Bronze',getdate()),</v>
       </c>
@@ -3532,7 +3532,7 @@
         <f t="shared" si="3"/>
         <v>Lime</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Lime',getdate()),</v>
       </c>
@@ -3557,7 +3557,7 @@
         <f t="shared" si="3"/>
         <v>Neon green</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Neon green',getdate()),</v>
       </c>
@@ -3582,7 +3582,7 @@
         <f t="shared" si="3"/>
         <v>Neon hot pink</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Neon hot pink',getdate()),</v>
       </c>
@@ -3607,7 +3607,7 @@
         <f t="shared" si="3"/>
         <v>Neon orange</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Neon orange',getdate()),</v>
       </c>
@@ -3632,7 +3632,7 @@
         <f t="shared" si="3"/>
         <v>Neon yellow</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Neon yellow',getdate()),</v>
       </c>
@@ -3657,7 +3657,7 @@
         <f t="shared" si="3"/>
         <v>Metallic aqua</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic aqua',getdate()),</v>
       </c>
@@ -3682,7 +3682,7 @@
         <f t="shared" si="3"/>
         <v>Metallic black</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic black',getdate()),</v>
       </c>
@@ -3707,7 +3707,7 @@
         <f t="shared" si="3"/>
         <v>Metallic blue</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic blue',getdate()),</v>
       </c>
@@ -3732,7 +3732,7 @@
         <f t="shared" si="3"/>
         <v>Metallic dark blue</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic dark blue',getdate()),</v>
       </c>
@@ -3757,7 +3757,7 @@
         <f t="shared" si="3"/>
         <v>Gold</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Gold',getdate()),</v>
       </c>
@@ -3782,7 +3782,7 @@
         <f t="shared" si="3"/>
         <v>Metallic green</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic green',getdate()),</v>
       </c>
@@ -3807,7 +3807,7 @@
         <f t="shared" si="3"/>
         <v>Metallic hot pink</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic hot pink',getdate()),</v>
       </c>
@@ -3832,7 +3832,7 @@
         <f t="shared" si="3"/>
         <v>Metallic lavender</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic lavender',getdate()),</v>
       </c>
@@ -3857,7 +3857,7 @@
         <f t="shared" si="3"/>
         <v>Metallic lemon green</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic lemon green',getdate()),</v>
       </c>
@@ -3882,7 +3882,7 @@
         <f t="shared" si="3"/>
         <v>Metallic light pink</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic light pink',getdate()),</v>
       </c>
@@ -3907,7 +3907,7 @@
         <f t="shared" si="3"/>
         <v>Metallic orange</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic orange',getdate()),</v>
       </c>
@@ -3932,7 +3932,7 @@
         <f t="shared" si="3"/>
         <v>Metallic peach</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66" s="8" t="str">
         <f t="shared" si="4"/>
         <v>('Metallic peach',getdate()),</v>
       </c>
@@ -3957,7 +3957,7 @@
         <f t="shared" ref="E67:E130" si="8">CONCATENATE(C67,D67)</f>
         <v>Metallic pink</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67" s="8" t="str">
         <f t="shared" ref="F67:F130" si="9">CONCATENATE("('",E67,"',getdate()),")</f>
         <v>('Metallic pink',getdate()),</v>
       </c>
@@ -3982,7 +3982,7 @@
         <f t="shared" si="8"/>
         <v>Metallic purple</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Metallic purple',getdate()),</v>
       </c>
@@ -4007,7 +4007,7 @@
         <f t="shared" si="8"/>
         <v>Metallic red</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Metallic red',getdate()),</v>
       </c>
@@ -4032,7 +4032,7 @@
         <f t="shared" si="8"/>
         <v>Silver</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Silver',getdate()),</v>
       </c>
@@ -4057,7 +4057,7 @@
         <f t="shared" si="8"/>
         <v>Metallic yellow</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Metallic yellow',getdate()),</v>
       </c>
@@ -4082,7 +4082,7 @@
         <f t="shared" si="8"/>
         <v>Tritone green - yellow - orange</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Tritone green - yellow - orange',getdate()),</v>
       </c>
@@ -4107,7 +4107,7 @@
         <f t="shared" si="8"/>
         <v>Triton lavander - hot pink - turquoise</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Triton lavander - hot pink - turquoise',getdate()),</v>
       </c>
@@ -4132,7 +4132,7 @@
         <f t="shared" si="8"/>
         <v>Tritone purple - sky blue - yellow</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Tritone purple - sky blue - yellow',getdate()),</v>
       </c>
@@ -4157,7 +4157,7 @@
         <f t="shared" si="8"/>
         <v>Tritone yellow - orange - black</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Tritone yellow - orange - black',getdate()),</v>
       </c>
@@ -4182,7 +4182,7 @@
         <f t="shared" si="8"/>
         <v>Aquamarine</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Aquamarine',getdate()),</v>
       </c>
@@ -4207,7 +4207,7 @@
         <f t="shared" si="8"/>
         <v>Brown</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Brown',getdate()),</v>
       </c>
@@ -4232,7 +4232,7 @@
         <f t="shared" si="8"/>
         <v>Burgundy</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Burgundy',getdate()),</v>
       </c>
@@ -4257,7 +4257,7 @@
         <f t="shared" si="8"/>
         <v>Dark blue</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Dark blue',getdate()),</v>
       </c>
@@ -4282,7 +4282,7 @@
         <f t="shared" si="8"/>
         <v>Grape</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Grape',getdate()),</v>
       </c>
@@ -4307,7 +4307,7 @@
         <f t="shared" si="8"/>
         <v>Kelly green</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Kelly green',getdate()),</v>
       </c>
@@ -4332,7 +4332,7 @@
         <f t="shared" si="8"/>
         <v>Magenta</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F82" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Magenta',getdate()),</v>
       </c>
@@ -4357,7 +4357,7 @@
         <f t="shared" si="8"/>
         <v>Mustard</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Mustard',getdate()),</v>
       </c>
@@ -4382,7 +4382,7 @@
         <f t="shared" si="8"/>
         <v>Blue patriotic</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Blue patriotic',getdate()),</v>
       </c>
@@ -4407,7 +4407,7 @@
         <f t="shared" si="8"/>
         <v>Peach - brown</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Peach - brown',getdate()),</v>
       </c>
@@ -4432,7 +4432,7 @@
         <f t="shared" si="8"/>
         <v>Pink - blue</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pink - blue',getdate()),</v>
       </c>
@@ -4457,7 +4457,7 @@
         <f t="shared" si="8"/>
         <v>Yellow - blue</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Yellow - blue',getdate()),</v>
       </c>
@@ -4482,7 +4482,7 @@
         <f t="shared" si="8"/>
         <v>Yellow - brown</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Yellow - brown',getdate()),</v>
       </c>
@@ -4507,7 +4507,7 @@
         <f t="shared" si="8"/>
         <v>White - black</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('White - black',getdate()),</v>
       </c>
@@ -4532,7 +4532,7 @@
         <f t="shared" si="8"/>
         <v>White - brown</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('White - brown',getdate()),</v>
       </c>
@@ -4557,7 +4557,7 @@
         <f t="shared" si="8"/>
         <v>Teal blue</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Teal blue',getdate()),</v>
       </c>
@@ -4582,7 +4582,7 @@
         <f t="shared" si="8"/>
         <v>White - lila</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('White - lila',getdate()),</v>
       </c>
@@ -4607,7 +4607,7 @@
         <f t="shared" si="8"/>
         <v>Rainbow chameleon</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F93" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Rainbow chameleon',getdate()),</v>
       </c>
@@ -4632,7 +4632,7 @@
         <f t="shared" si="8"/>
         <v>Variegated</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Variegated',getdate()),</v>
       </c>
@@ -4657,7 +4657,7 @@
         <f t="shared" si="8"/>
         <v>Crabs</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Crabs',getdate()),</v>
       </c>
@@ -4682,7 +4682,7 @@
         <f t="shared" si="8"/>
         <v>Gypso perfecta / millon star</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Gypso perfecta / millon star',getdate()),</v>
       </c>
@@ -4707,7 +4707,7 @@
         <f t="shared" si="8"/>
         <v>Assorted plants</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Assorted plants',getdate()),</v>
       </c>
@@ -4732,7 +4732,7 @@
         <f t="shared" si="8"/>
         <v>Ivy green</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Ivy green',getdate()),</v>
       </c>
@@ -4757,7 +4757,7 @@
         <f t="shared" si="8"/>
         <v>Marble queen</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Marble queen',getdate()),</v>
       </c>
@@ -4782,7 +4782,7 @@
         <f t="shared" si="8"/>
         <v>Philo brasil</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Philo brasil',getdate()),</v>
       </c>
@@ -4807,7 +4807,7 @@
         <f t="shared" si="8"/>
         <v>Pothos golden</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F101" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pothos golden',getdate()),</v>
       </c>
@@ -4832,7 +4832,7 @@
         <f t="shared" si="8"/>
         <v>Pothos jade</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F102" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pothos jade',getdate()),</v>
       </c>
@@ -4857,7 +4857,7 @@
         <f t="shared" si="8"/>
         <v>Pothos scindapsus</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F103" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pothos scindapsus',getdate()),</v>
       </c>
@@ -4882,7 +4882,7 @@
         <f t="shared" si="8"/>
         <v>Spider hanging basket</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F104" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Spider hanging basket',getdate()),</v>
       </c>
@@ -4907,7 +4907,7 @@
         <f t="shared" si="8"/>
         <v>Rainbow</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F105" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Rainbow',getdate()),</v>
       </c>
@@ -4932,7 +4932,7 @@
         <f t="shared" si="8"/>
         <v>Pastel</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F106" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel',getdate()),</v>
       </c>
@@ -4957,7 +4957,7 @@
         <f t="shared" si="8"/>
         <v>Antique pink</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F107" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Antique pink',getdate()),</v>
       </c>
@@ -4982,7 +4982,7 @@
         <f t="shared" si="8"/>
         <v>Assorted antique</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F108" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Assorted antique',getdate()),</v>
       </c>
@@ -5007,7 +5007,7 @@
         <f t="shared" si="8"/>
         <v>Antique red</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F109" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Antique red',getdate()),</v>
       </c>
@@ -5032,7 +5032,7 @@
         <f t="shared" si="8"/>
         <v>Aqua</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F110" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Aqua',getdate()),</v>
       </c>
@@ -5057,7 +5057,7 @@
         <f t="shared" si="8"/>
         <v>Lemon green</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F111" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Lemon green',getdate()),</v>
       </c>
@@ -5082,7 +5082,7 @@
         <f t="shared" si="8"/>
         <v>Shocking blue</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F112" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Shocking blue',getdate()),</v>
       </c>
@@ -5107,7 +5107,7 @@
         <f t="shared" si="8"/>
         <v>Assorted - fall</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F113" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Assorted - fall',getdate()),</v>
       </c>
@@ -5132,7 +5132,7 @@
         <f t="shared" si="8"/>
         <v>Lilac</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F114" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Lilac',getdate()),</v>
       </c>
@@ -5157,7 +5157,7 @@
         <f t="shared" si="8"/>
         <v>Blueberry</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F115" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Blueberry',getdate()),</v>
       </c>
@@ -5182,7 +5182,7 @@
         <f t="shared" si="8"/>
         <v>Dark purple</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F116" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Dark purple',getdate()),</v>
       </c>
@@ -5207,7 +5207,7 @@
         <f t="shared" si="8"/>
         <v>Light aqua</v>
       </c>
-      <c r="F117" t="str">
+      <c r="F117" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Light aqua',getdate()),</v>
       </c>
@@ -5232,7 +5232,7 @@
         <f t="shared" si="8"/>
         <v>Light blue</v>
       </c>
-      <c r="F118" t="str">
+      <c r="F118" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Light blue',getdate()),</v>
       </c>
@@ -5257,7 +5257,7 @@
         <f t="shared" si="8"/>
         <v>Party</v>
       </c>
-      <c r="F119" t="str">
+      <c r="F119" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Party',getdate()),</v>
       </c>
@@ -5282,7 +5282,7 @@
         <f t="shared" si="8"/>
         <v>Patriotic asst.</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F120" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Patriotic asst.',getdate()),</v>
       </c>
@@ -5307,7 +5307,7 @@
         <f t="shared" si="8"/>
         <v>Blue - white</v>
       </c>
-      <c r="F121" t="str">
+      <c r="F121" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Blue - white',getdate()),</v>
       </c>
@@ -5332,7 +5332,7 @@
         <f t="shared" si="8"/>
         <v>Pastel asst.</v>
       </c>
-      <c r="F122" t="str">
+      <c r="F122" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel asst.',getdate()),</v>
       </c>
@@ -5357,7 +5357,7 @@
         <f t="shared" si="8"/>
         <v>Pastel blue</v>
       </c>
-      <c r="F123" t="str">
+      <c r="F123" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel blue',getdate()),</v>
       </c>
@@ -5382,7 +5382,7 @@
         <f t="shared" si="8"/>
         <v>Pastel hot pink</v>
       </c>
-      <c r="F124" t="str">
+      <c r="F124" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel hot pink',getdate()),</v>
       </c>
@@ -5407,7 +5407,7 @@
         <f t="shared" si="8"/>
         <v>Pastel green</v>
       </c>
-      <c r="F125" t="str">
+      <c r="F125" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel green',getdate()),</v>
       </c>
@@ -5432,7 +5432,7 @@
         <f t="shared" si="8"/>
         <v>Pastel orange</v>
       </c>
-      <c r="F126" t="str">
+      <c r="F126" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel orange',getdate()),</v>
       </c>
@@ -5457,7 +5457,7 @@
         <f t="shared" si="8"/>
         <v>Pastel purple</v>
       </c>
-      <c r="F127" t="str">
+      <c r="F127" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel purple',getdate()),</v>
       </c>
@@ -5482,7 +5482,7 @@
         <f t="shared" si="8"/>
         <v>Pastel violet</v>
       </c>
-      <c r="F128" t="str">
+      <c r="F128" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pastel violet',getdate()),</v>
       </c>
@@ -5507,7 +5507,7 @@
         <f t="shared" si="8"/>
         <v>Sandra bernhardt</v>
       </c>
-      <c r="F129" t="str">
+      <c r="F129" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Sandra bernhardt',getdate()),</v>
       </c>
@@ -5532,7 +5532,7 @@
         <f t="shared" si="8"/>
         <v>Pineapple</v>
       </c>
-      <c r="F130" t="str">
+      <c r="F130" s="8" t="str">
         <f t="shared" si="9"/>
         <v>('Pineapple',getdate()),</v>
       </c>
@@ -5557,7 +5557,7 @@
         <f t="shared" ref="E131:E194" si="13">CONCATENATE(C131,D131)</f>
         <v>Spath</v>
       </c>
-      <c r="F131" t="str">
+      <c r="F131" s="8" t="str">
         <f t="shared" ref="F131:F194" si="14">CONCATENATE("('",E131,"',getdate()),")</f>
         <v>('Spath',getdate()),</v>
       </c>
@@ -5582,7 +5582,7 @@
         <f t="shared" si="13"/>
         <v>Bamboo</v>
       </c>
-      <c r="F132" t="str">
+      <c r="F132" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bamboo',getdate()),</v>
       </c>
@@ -5607,7 +5607,7 @@
         <f t="shared" si="13"/>
         <v>Bonsai</v>
       </c>
-      <c r="F133" t="str">
+      <c r="F133" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bonsai',getdate()),</v>
       </c>
@@ -5632,7 +5632,7 @@
         <f t="shared" si="13"/>
         <v>Bromelias</v>
       </c>
-      <c r="F134" t="str">
+      <c r="F134" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bromelias',getdate()),</v>
       </c>
@@ -5657,7 +5657,7 @@
         <f t="shared" si="13"/>
         <v>Orchid</v>
       </c>
-      <c r="F135" t="str">
+      <c r="F135" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Orchid',getdate()),</v>
       </c>
@@ -5682,7 +5682,7 @@
         <f t="shared" si="13"/>
         <v>Mini orchids</v>
       </c>
-      <c r="F136" t="str">
+      <c r="F136" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Mini orchids',getdate()),</v>
       </c>
@@ -5707,7 +5707,7 @@
         <f t="shared" si="13"/>
         <v>Red - pink</v>
       </c>
-      <c r="F137" t="str">
+      <c r="F137" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Red - pink',getdate()),</v>
       </c>
@@ -5732,7 +5732,7 @@
         <f t="shared" si="13"/>
         <v>Red - white - pink</v>
       </c>
-      <c r="F138" t="str">
+      <c r="F138" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Red - white - pink',getdate()),</v>
       </c>
@@ -5757,7 +5757,7 @@
         <f t="shared" si="13"/>
         <v>Red - yellow</v>
       </c>
-      <c r="F139" t="str">
+      <c r="F139" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Red - yellow',getdate()),</v>
       </c>
@@ -5782,7 +5782,7 @@
         <f t="shared" si="13"/>
         <v>Red - color</v>
       </c>
-      <c r="F140" t="str">
+      <c r="F140" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Red - color',getdate()),</v>
       </c>
@@ -5807,7 +5807,7 @@
         <f t="shared" si="13"/>
         <v>Aphrodite</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F141" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Aphrodite',getdate()),</v>
       </c>
@@ -5832,7 +5832,7 @@
         <f t="shared" si="13"/>
         <v>Baronesse</v>
       </c>
-      <c r="F142" t="str">
+      <c r="F142" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Baronesse',getdate()),</v>
       </c>
@@ -5857,7 +5857,7 @@
         <f t="shared" si="13"/>
         <v>White cloud</v>
       </c>
-      <c r="F143" t="str">
+      <c r="F143" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('White cloud',getdate()),</v>
       </c>
@@ -5882,7 +5882,7 @@
         <f t="shared" si="13"/>
         <v>Yves piaget</v>
       </c>
-      <c r="F144" t="str">
+      <c r="F144" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Yves piaget',getdate()),</v>
       </c>
@@ -5907,7 +5907,7 @@
         <f t="shared" si="13"/>
         <v>Free spirit</v>
       </c>
-      <c r="F145" t="str">
+      <c r="F145" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Free spirit',getdate()),</v>
       </c>
@@ -5932,7 +5932,7 @@
         <f t="shared" si="13"/>
         <v>Vitality</v>
       </c>
-      <c r="F146" t="str">
+      <c r="F146" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Vitality',getdate()),</v>
       </c>
@@ -5957,7 +5957,7 @@
         <f t="shared" si="13"/>
         <v>Pink piano</v>
       </c>
-      <c r="F147" t="str">
+      <c r="F147" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Pink piano',getdate()),</v>
       </c>
@@ -5982,7 +5982,7 @@
         <f t="shared" si="13"/>
         <v>Alabaster</v>
       </c>
-      <c r="F148" t="str">
+      <c r="F148" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Alabaster',getdate()),</v>
       </c>
@@ -6007,7 +6007,7 @@
         <f t="shared" si="13"/>
         <v>Mariatheresia</v>
       </c>
-      <c r="F149" t="str">
+      <c r="F149" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Mariatheresia',getdate()),</v>
       </c>
@@ -6032,7 +6032,7 @@
         <f t="shared" si="13"/>
         <v>Mythos</v>
       </c>
-      <c r="F150" t="str">
+      <c r="F150" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Mythos',getdate()),</v>
       </c>
@@ -6057,7 +6057,7 @@
         <f t="shared" si="13"/>
         <v>Mayra</v>
       </c>
-      <c r="F151" t="str">
+      <c r="F151" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Mayra',getdate()),</v>
       </c>
@@ -6082,18 +6082,18 @@
         <f t="shared" si="13"/>
         <v>Romantic</v>
       </c>
-      <c r="F152" t="str">
+      <c r="F152" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Romantic',getdate()),</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="10"/>
-        <v>pink o'hara</v>
+        <v>pink o hara</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="11"/>
@@ -6101,20 +6101,20 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="12"/>
-        <v>ink o'hara</v>
+        <v>ink o hara</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="13"/>
-        <v>Pink o'hara</v>
-      </c>
-      <c r="F153" t="str">
+        <v>Pink o hara</v>
+      </c>
+      <c r="F153" s="8" t="str">
         <f t="shared" si="14"/>
-        <v>('Pink o'hara',getdate()),</v>
+        <v>('Pink o hara',getdate()),</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="10"/>
@@ -6132,14 +6132,14 @@
         <f t="shared" si="13"/>
         <v>Sunset</v>
       </c>
-      <c r="F154" t="str">
+      <c r="F154" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Sunset',getdate()),</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="10"/>
@@ -6157,14 +6157,14 @@
         <f t="shared" si="13"/>
         <v>Cara luna</v>
       </c>
-      <c r="F155" t="str">
+      <c r="F155" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Cara luna',getdate()),</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="10"/>
@@ -6182,14 +6182,14 @@
         <f t="shared" si="13"/>
         <v>Monster</v>
       </c>
-      <c r="F156" t="str">
+      <c r="F156" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Monster',getdate()),</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="10"/>
@@ -6207,14 +6207,14 @@
         <f t="shared" si="13"/>
         <v>Catalina</v>
       </c>
-      <c r="F157" t="str">
+      <c r="F157" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Catalina',getdate()),</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="10"/>
@@ -6232,14 +6232,14 @@
         <f t="shared" si="13"/>
         <v>White - gold</v>
       </c>
-      <c r="F158" t="str">
+      <c r="F158" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('White - gold',getdate()),</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="10"/>
@@ -6257,14 +6257,14 @@
         <f t="shared" si="13"/>
         <v>White - irisdecense</v>
       </c>
-      <c r="F159" t="str">
+      <c r="F159" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('White - irisdecense',getdate()),</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="10"/>
@@ -6282,14 +6282,14 @@
         <f t="shared" si="13"/>
         <v>Bicolor white - pink</v>
       </c>
-      <c r="F160" t="str">
+      <c r="F160" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bicolor white - pink',getdate()),</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="10"/>
@@ -6307,14 +6307,14 @@
         <f t="shared" si="13"/>
         <v>Bicolor yellow - red</v>
       </c>
-      <c r="F161" t="str">
+      <c r="F161" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bicolor yellow - red',getdate()),</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="10"/>
@@ -6332,14 +6332,14 @@
         <f t="shared" si="13"/>
         <v>Green - white</v>
       </c>
-      <c r="F162" t="str">
+      <c r="F162" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Green - white',getdate()),</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="10"/>
@@ -6357,14 +6357,14 @@
         <f t="shared" si="13"/>
         <v>Orange - white</v>
       </c>
-      <c r="F163" t="str">
+      <c r="F163" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Orange - white',getdate()),</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="10"/>
@@ -6382,14 +6382,14 @@
         <f t="shared" si="13"/>
         <v>Purple - white</v>
       </c>
-      <c r="F164" t="str">
+      <c r="F164" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Purple - white',getdate()),</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="10"/>
@@ -6407,14 +6407,14 @@
         <f t="shared" si="13"/>
         <v>Red - gold</v>
       </c>
-      <c r="F165" t="str">
+      <c r="F165" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Red - gold',getdate()),</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="10"/>
@@ -6432,14 +6432,14 @@
         <f t="shared" si="13"/>
         <v>Red - silver</v>
       </c>
-      <c r="F166" t="str">
+      <c r="F166" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Red - silver',getdate()),</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="10"/>
@@ -6457,14 +6457,14 @@
         <f t="shared" si="13"/>
         <v>Turquoise</v>
       </c>
-      <c r="F167" t="str">
+      <c r="F167" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Turquoise',getdate()),</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="10"/>
@@ -6482,14 +6482,14 @@
         <f t="shared" si="13"/>
         <v>White - silver</v>
       </c>
-      <c r="F168" t="str">
+      <c r="F168" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('White - silver',getdate()),</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="10"/>
@@ -6507,14 +6507,14 @@
         <f t="shared" si="13"/>
         <v>Yellow - white</v>
       </c>
-      <c r="F169" t="str">
+      <c r="F169" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Yellow - white',getdate()),</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="10"/>
@@ -6532,14 +6532,14 @@
         <f t="shared" si="13"/>
         <v>Crème de la crème</v>
       </c>
-      <c r="F170" t="str">
+      <c r="F170" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Crème de la crème',getdate()),</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="10"/>
@@ -6557,14 +6557,14 @@
         <f t="shared" si="13"/>
         <v>Pink floyd</v>
       </c>
-      <c r="F171" t="str">
+      <c r="F171" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Pink floyd',getdate()),</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="10"/>
@@ -6582,14 +6582,14 @@
         <f t="shared" si="13"/>
         <v>Tenerife</v>
       </c>
-      <c r="F172" t="str">
+      <c r="F172" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Tenerife',getdate()),</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="10"/>
@@ -6607,14 +6607,14 @@
         <f t="shared" si="13"/>
         <v>Ocean song</v>
       </c>
-      <c r="F173" t="str">
+      <c r="F173" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Ocean song',getdate()),</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="10"/>
@@ -6632,14 +6632,14 @@
         <f t="shared" si="13"/>
         <v>Deep purple</v>
       </c>
-      <c r="F174" t="str">
+      <c r="F174" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Deep purple',getdate()),</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="10"/>
@@ -6657,14 +6657,14 @@
         <f t="shared" si="13"/>
         <v>Senorita</v>
       </c>
-      <c r="F175" t="str">
+      <c r="F175" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Senorita',getdate()),</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="10"/>
@@ -6682,14 +6682,14 @@
         <f t="shared" si="13"/>
         <v>Blushing akito</v>
       </c>
-      <c r="F176" t="str">
+      <c r="F176" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Blushing akito',getdate()),</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="10"/>
@@ -6707,14 +6707,14 @@
         <f t="shared" si="13"/>
         <v>Titanic</v>
       </c>
-      <c r="F177" t="str">
+      <c r="F177" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Titanic',getdate()),</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="10"/>
@@ -6732,14 +6732,14 @@
         <f t="shared" si="13"/>
         <v>Nina</v>
       </c>
-      <c r="F178" t="str">
+      <c r="F178" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Nina',getdate()),</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="10"/>
@@ -6757,14 +6757,14 @@
         <f t="shared" si="13"/>
         <v>Iguana</v>
       </c>
-      <c r="F179" t="str">
+      <c r="F179" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Iguana',getdate()),</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="10"/>
@@ -6782,14 +6782,14 @@
         <f t="shared" si="13"/>
         <v>Cabaret</v>
       </c>
-      <c r="F180" t="str">
+      <c r="F180" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Cabaret',getdate()),</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="10"/>
@@ -6807,14 +6807,14 @@
         <f t="shared" si="13"/>
         <v>Explorer</v>
       </c>
-      <c r="F181" t="str">
+      <c r="F181" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Explorer',getdate()),</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="10"/>
@@ -6832,14 +6832,14 @@
         <f t="shared" si="13"/>
         <v>White chocolate</v>
       </c>
-      <c r="F182" t="str">
+      <c r="F182" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('White chocolate',getdate()),</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="10"/>
@@ -6857,14 +6857,14 @@
         <f t="shared" si="13"/>
         <v>First lady</v>
       </c>
-      <c r="F183" t="str">
+      <c r="F183" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('First lady',getdate()),</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="10"/>
@@ -6882,14 +6882,14 @@
         <f t="shared" si="13"/>
         <v>Bikini</v>
       </c>
-      <c r="F184" t="str">
+      <c r="F184" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bikini',getdate()),</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="10"/>
@@ -6907,14 +6907,14 @@
         <f t="shared" si="13"/>
         <v>Sonrisa</v>
       </c>
-      <c r="F185" t="str">
+      <c r="F185" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Sonrisa',getdate()),</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="10"/>
@@ -6932,14 +6932,14 @@
         <f t="shared" si="13"/>
         <v>Cubana</v>
       </c>
-      <c r="F186" t="str">
+      <c r="F186" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Cubana',getdate()),</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="10"/>
@@ -6957,14 +6957,14 @@
         <f t="shared" si="13"/>
         <v>Hummer</v>
       </c>
-      <c r="F187" t="str">
+      <c r="F187" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Hummer',getdate()),</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="10"/>
@@ -6982,14 +6982,14 @@
         <f t="shared" si="13"/>
         <v>Bicolor</v>
       </c>
-      <c r="F188" t="str">
+      <c r="F188" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Bicolor',getdate()),</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="10"/>
@@ -7007,14 +7007,14 @@
         <f t="shared" si="13"/>
         <v>Topaz</v>
       </c>
-      <c r="F189" t="str">
+      <c r="F189" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Topaz',getdate()),</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="10"/>
@@ -7032,14 +7032,14 @@
         <f t="shared" si="13"/>
         <v>Imagination</v>
       </c>
-      <c r="F190" t="str">
+      <c r="F190" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Imagination',getdate()),</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="10"/>
@@ -7057,14 +7057,14 @@
         <f t="shared" si="13"/>
         <v>Freedom</v>
       </c>
-      <c r="F191" t="str">
+      <c r="F191" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Freedom',getdate()),</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="10"/>
@@ -7082,14 +7082,14 @@
         <f t="shared" si="13"/>
         <v>Forever young</v>
       </c>
-      <c r="F192" t="str">
+      <c r="F192" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Forever young',getdate()),</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="10"/>
@@ -7107,14 +7107,14 @@
         <f t="shared" si="13"/>
         <v>Movie star</v>
       </c>
-      <c r="F193" t="str">
+      <c r="F193" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Movie star',getdate()),</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="10"/>
@@ -7132,14 +7132,14 @@
         <f t="shared" si="13"/>
         <v>Vendela</v>
       </c>
-      <c r="F194" t="str">
+      <c r="F194" s="8" t="str">
         <f t="shared" si="14"/>
         <v>('Vendela',getdate()),</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" ref="B195:B229" si="15">LOWER(A195)</f>
@@ -7157,14 +7157,14 @@
         <f t="shared" ref="E195:E229" si="18">CONCATENATE(C195,D195)</f>
         <v>Mondial</v>
       </c>
-      <c r="F195" t="str">
+      <c r="F195" s="8" t="str">
         <f t="shared" ref="F195:F229" si="19">CONCATENATE("('",E195,"',getdate()),")</f>
         <v>('Mondial',getdate()),</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="15"/>
@@ -7182,14 +7182,14 @@
         <f t="shared" si="18"/>
         <v>High and yellow</v>
       </c>
-      <c r="F196" t="str">
+      <c r="F196" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('High and yellow',getdate()),</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="15"/>
@@ -7207,14 +7207,14 @@
         <f t="shared" si="18"/>
         <v>High and magic</v>
       </c>
-      <c r="F197" t="str">
+      <c r="F197" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('High and magic',getdate()),</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="15"/>
@@ -7232,14 +7232,14 @@
         <f t="shared" si="18"/>
         <v>Circus</v>
       </c>
-      <c r="F198" t="str">
+      <c r="F198" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Circus',getdate()),</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="15"/>
@@ -7257,14 +7257,14 @@
         <f t="shared" si="18"/>
         <v>Farfalla</v>
       </c>
-      <c r="F199" t="str">
+      <c r="F199" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Farfalla',getdate()),</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="15"/>
@@ -7282,14 +7282,14 @@
         <f t="shared" si="18"/>
         <v>Cherry brandy</v>
       </c>
-      <c r="F200" t="str">
+      <c r="F200" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Cherry brandy',getdate()),</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="15"/>
@@ -7307,14 +7307,14 @@
         <f t="shared" si="18"/>
         <v>Twlight</v>
       </c>
-      <c r="F201" t="str">
+      <c r="F201" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Twlight',getdate()),</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="15"/>
@@ -7332,14 +7332,14 @@
         <f t="shared" si="18"/>
         <v>Riviera</v>
       </c>
-      <c r="F202" t="str">
+      <c r="F202" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Riviera',getdate()),</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="15"/>
@@ -7357,14 +7357,14 @@
         <f t="shared" si="18"/>
         <v>Hot merengue</v>
       </c>
-      <c r="F203" t="str">
+      <c r="F203" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Hot merengue',getdate()),</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="15"/>
@@ -7382,14 +7382,14 @@
         <f t="shared" si="18"/>
         <v>Wild spirit</v>
       </c>
-      <c r="F204" t="str">
+      <c r="F204" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Wild spirit',getdate()),</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="15"/>
@@ -7407,14 +7407,14 @@
         <f t="shared" si="18"/>
         <v>Black magic</v>
       </c>
-      <c r="F205" t="str">
+      <c r="F205" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Black magic',getdate()),</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="15"/>
@@ -7432,14 +7432,14 @@
         <f t="shared" si="18"/>
         <v>Bright color assorted</v>
       </c>
-      <c r="F206" t="str">
+      <c r="F206" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Bright color assorted',getdate()),</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="15"/>
@@ -7457,14 +7457,14 @@
         <f t="shared" si="18"/>
         <v>Green tea</v>
       </c>
-      <c r="F207" t="str">
+      <c r="F207" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Green tea',getdate()),</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="15"/>
@@ -7482,14 +7482,14 @@
         <f t="shared" si="18"/>
         <v>Hot lady</v>
       </c>
-      <c r="F208" t="str">
+      <c r="F208" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Hot lady',getdate()),</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="15"/>
@@ -7507,14 +7507,14 @@
         <f t="shared" si="18"/>
         <v>High and mora</v>
       </c>
-      <c r="F209" t="str">
+      <c r="F209" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('High and mora',getdate()),</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="15"/>
@@ -7532,14 +7532,14 @@
         <f t="shared" si="18"/>
         <v>Cool water</v>
       </c>
-      <c r="F210" t="str">
+      <c r="F210" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Cool water',getdate()),</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="15"/>
@@ -7557,14 +7557,14 @@
         <f t="shared" si="18"/>
         <v>Moody blue</v>
       </c>
-      <c r="F211" t="str">
+      <c r="F211" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Moody blue',getdate()),</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="15"/>
@@ -7582,14 +7582,14 @@
         <f t="shared" si="18"/>
         <v>Opus</v>
       </c>
-      <c r="F212" t="str">
+      <c r="F212" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Opus',getdate()),</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="15"/>
@@ -7607,14 +7607,14 @@
         <f t="shared" si="18"/>
         <v>Sweet akito</v>
       </c>
-      <c r="F213" t="str">
+      <c r="F213" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Sweet akito',getdate()),</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="15"/>
@@ -7632,14 +7632,14 @@
         <f t="shared" si="18"/>
         <v>Samba pa ti</v>
       </c>
-      <c r="F214" t="str">
+      <c r="F214" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Samba pa ti',getdate()),</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="15"/>
@@ -7657,14 +7657,14 @@
         <f t="shared" si="18"/>
         <v>Tropical amazone</v>
       </c>
-      <c r="F215" t="str">
+      <c r="F215" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Tropical amazone',getdate()),</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="15"/>
@@ -7682,14 +7682,14 @@
         <f t="shared" si="18"/>
         <v>Wow</v>
       </c>
-      <c r="F216" t="str">
+      <c r="F216" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Wow',getdate()),</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="15"/>
@@ -7707,14 +7707,14 @@
         <f t="shared" si="18"/>
         <v>Manitou</v>
       </c>
-      <c r="F217" t="str">
+      <c r="F217" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Manitou',getdate()),</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="15"/>
@@ -7732,14 +7732,14 @@
         <f t="shared" si="18"/>
         <v>Vodoo</v>
       </c>
-      <c r="F218" t="str">
+      <c r="F218" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Vodoo',getdate()),</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="15"/>
@@ -7757,14 +7757,14 @@
         <f t="shared" si="18"/>
         <v>High and orange</v>
       </c>
-      <c r="F219" t="str">
+      <c r="F219" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('High and orange',getdate()),</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="15"/>
@@ -7782,14 +7782,14 @@
         <f t="shared" si="18"/>
         <v>Nectarine</v>
       </c>
-      <c r="F220" t="str">
+      <c r="F220" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Nectarine',getdate()),</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="15"/>
@@ -7807,14 +7807,14 @@
         <f t="shared" si="18"/>
         <v>Sexy red</v>
       </c>
-      <c r="F221" t="str">
+      <c r="F221" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Sexy red',getdate()),</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="15"/>
@@ -7832,14 +7832,14 @@
         <f t="shared" si="18"/>
         <v>White dove</v>
       </c>
-      <c r="F222" t="str">
+      <c r="F222" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('White dove',getdate()),</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="15"/>
@@ -7857,14 +7857,14 @@
         <f t="shared" si="18"/>
         <v>Polar star</v>
       </c>
-      <c r="F223" t="str">
+      <c r="F223" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Polar star',getdate()),</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="15"/>
@@ -7882,14 +7882,14 @@
         <f t="shared" si="18"/>
         <v>Dejavu</v>
       </c>
-      <c r="F224" t="str">
+      <c r="F224" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Dejavu',getdate()),</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="15"/>
@@ -7907,14 +7907,14 @@
         <f t="shared" si="18"/>
         <v>Tara</v>
       </c>
-      <c r="F225" t="str">
+      <c r="F225" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Tara',getdate()),</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="15"/>
@@ -7932,14 +7932,14 @@
         <f t="shared" si="18"/>
         <v>Swetness</v>
       </c>
-      <c r="F226" t="str">
+      <c r="F226" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Swetness',getdate()),</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="15"/>
@@ -7957,14 +7957,14 @@
         <f t="shared" si="18"/>
         <v>Wimbledon</v>
       </c>
-      <c r="F227" t="str">
+      <c r="F227" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Wimbledon',getdate()),</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="15"/>
@@ -7982,14 +7982,14 @@
         <f t="shared" si="18"/>
         <v>Purple haze</v>
       </c>
-      <c r="F228" t="str">
+      <c r="F228" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Purple haze',getdate()),</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="15"/>
@@ -8007,13 +8007,14 @@
         <f t="shared" si="18"/>
         <v>Light pink - white</v>
       </c>
-      <c r="F229" t="str">
+      <c r="F229" s="8" t="str">
         <f t="shared" si="19"/>
         <v>('Light pink - white',getdate()),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8028,15 +8029,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8067,7 +8068,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -8444,7 +8445,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -8457,7 +8458,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -9198,7 +9199,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
@@ -9510,7 +9511,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
@@ -9523,7 +9524,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
@@ -9588,7 +9589,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
@@ -9601,7 +9602,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
@@ -9614,7 +9615,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
@@ -9627,7 +9628,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="2"/>
@@ -9640,7 +9641,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="2"/>
@@ -9653,7 +9654,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="2"/>
@@ -9666,7 +9667,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="2"/>
@@ -9679,7 +9680,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="2"/>
@@ -9692,7 +9693,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="2"/>
@@ -9705,7 +9706,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="2"/>
@@ -9718,7 +9719,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" ref="B131:B137" si="4">LOWER(A131)</f>
@@ -9731,7 +9732,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="4"/>
@@ -9744,7 +9745,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="4"/>
@@ -9757,7 +9758,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="4"/>
@@ -9770,7 +9771,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="4"/>
@@ -9783,7 +9784,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="4"/>
@@ -9796,7 +9797,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="4"/>
@@ -9822,21 +9823,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("('",LEFT(UPPER(A2),1),RIGHT(LOWER(A2),LEN(A2)-1),"',getdate()),")</f>
@@ -9845,7 +9846,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B35" si="0">CONCATENATE("('",LEFT(UPPER(A3),1),RIGHT(LOWER(A3),LEN(A3)-1),"',getdate()),")</f>
@@ -9854,7 +9855,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -9863,7 +9864,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -9872,7 +9873,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -9881,7 +9882,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -9890,7 +9891,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -9899,7 +9900,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -9908,7 +9909,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -9917,7 +9918,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -9926,7 +9927,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -9935,7 +9936,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -9944,7 +9945,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -9953,7 +9954,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -9962,7 +9963,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -9971,7 +9972,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -9980,7 +9981,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -9989,7 +9990,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -9998,7 +9999,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -10007,7 +10008,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -10016,7 +10017,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -10025,7 +10026,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -10034,7 +10035,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -10043,7 +10044,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -10052,7 +10053,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -10061,7 +10062,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -10070,7 +10071,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -10079,7 +10080,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -10088,7 +10089,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -10097,7 +10098,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -10106,7 +10107,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -10115,7 +10116,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -10124,7 +10125,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -10133,7 +10134,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -10155,21 +10156,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE("('",LEFT(A2,1),LOWER(RIGHT(A2,LEN(A2)-1)),"',getdate()),")</f>
@@ -10178,7 +10179,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B12" si="0">CONCATENATE("('",LEFT(A3,1),LOWER(RIGHT(A3,LEN(A3)-1)),"',getdate()),")</f>
@@ -10187,7 +10188,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -10196,7 +10197,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -10223,7 +10224,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -10232,7 +10233,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -10241,7 +10242,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -10259,7 +10260,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>

--- a/modelo BDD/plantilla importacion Productos.xlsx
+++ b/modelo BDD/plantilla importacion Productos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ItemsType" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="PROCESS" sheetId="3" r:id="rId3"/>
     <sheet name="SPECIES" sheetId="8" r:id="rId4"/>
     <sheet name="Variety" sheetId="4" r:id="rId5"/>
-    <sheet name="Color" sheetId="5" r:id="rId6"/>
-    <sheet name="Grade" sheetId="6" r:id="rId7"/>
-    <sheet name="Cuts" sheetId="7" r:id="rId8"/>
+    <sheet name="typeBoxe" sheetId="9" r:id="rId6"/>
+    <sheet name="Color" sheetId="5" r:id="rId7"/>
+    <sheet name="Grade" sheetId="6" r:id="rId8"/>
+    <sheet name="Cuts" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="373">
   <si>
     <t>TYPE</t>
   </si>
@@ -1132,13 +1133,31 @@
   </si>
   <si>
     <t>PINK O HARA</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>HB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,6 +1207,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1239,7 +1264,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,6 +1314,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2291,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F229"/>
     </sheetView>
   </sheetViews>
@@ -8019,6 +8047,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" t="str">
+        <f t="shared" ref="B1:B6" si="0">CONCATENATE("insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('",A1,"',getdate() ),")</f>
+        <v>insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('SB',getdate() ),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('PG',getdate() ),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('QB',getdate() ),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('Vendor',getdate() ),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('EB',getdate() ),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into(TYPEBOXE_BTYPE,DATECREATE_BTYPE) values('HB',getdate() ),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C137"/>
   <sheetViews>
@@ -9813,7 +9911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -10146,7 +10244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
